--- a/frontend/src/assets/template_export.xlsx
+++ b/frontend/src/assets/template_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\job\QueDuongLogistics\frontend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55811217-FAF2-4C3A-892B-18C4FD1C6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B4FA8-657A-43D9-ACC3-C90F89EFB27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DBEDEF4B-9775-40CB-AC9D-37F20BE32D08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBEDEF4B-9775-40CB-AC9D-37F20BE32D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ngày tháng</t>
   </si>
@@ -57,27 +57,9 @@
     <t>Điểm đến</t>
   </si>
   <si>
-    <t>S/ R</t>
-  </si>
-  <si>
-    <t>Thời gian Vào</t>
-  </si>
-  <si>
-    <t>Thời gian ra</t>
-  </si>
-  <si>
-    <t>Địa điểm</t>
-  </si>
-  <si>
     <t>Đơn vị Vận tải</t>
   </si>
   <si>
-    <t>Số lượng hàng nhận</t>
-  </si>
-  <si>
-    <t>Số lượng hàng giao</t>
-  </si>
-  <si>
     <t>Điểm xuất phát</t>
   </si>
   <si>
@@ -106,15 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vé </t>
-  </si>
-  <si>
-    <t>Ghi chú khác</t>
-  </si>
-  <si>
-    <t>KM xuất phát</t>
-  </si>
-  <si>
-    <t>KM điểm đến</t>
   </si>
   <si>
     <t>Lái xe nộp đủ về VP</t>
@@ -127,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +121,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,18 +131,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,29 +159,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,378 +578,274 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="5" customWidth="1"/>
-    <col min="19" max="24" width="8.85546875" style="5"/>
-    <col min="25" max="28" width="9.28515625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="5"/>
-    <col min="30" max="30" width="15.7109375" style="5" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="12.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16" width="8.85546875" style="4"/>
+    <col min="17" max="20" width="9.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="7" t="s">
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="7" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="7"/>
+      <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" verticalDpi="0" r:id="rId1"/>
